--- a/R/analysis/data/Pt_10_Control.xlsx
+++ b/R/analysis/data/Pt_10_Control.xlsx
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.03</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.33</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>0.71</v>
@@ -635,16 +635,16 @@
         <v>2.52</v>
       </c>
       <c r="K4" t="n">
-        <v>6.17</v>
+        <v>0.05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04</v>
+        <v>4.36</v>
       </c>
       <c r="M4" t="n">
-        <v>4.6</v>
+        <v>0.35</v>
       </c>
       <c r="N4" t="n">
-        <v>0.25</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>1.7</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.71</v>
+        <v>4.71</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -807,16 +807,16 @@
         <v>1.52</v>
       </c>
       <c r="K7" t="n">
-        <v>5.95</v>
+        <v>0.71</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.5</v>
+        <v>4.21</v>
       </c>
       <c r="M7" t="n">
-        <v>2.83</v>
+        <v>1.41</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>1.41</v>
       </c>
       <c r="N8" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>1.87</v>
       </c>
       <c r="L9" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>0.58</v>
@@ -987,16 +987,16 @@
         <v>1.56</v>
       </c>
       <c r="K10" t="n">
-        <v>6.72</v>
+        <v>1.06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.75</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>3.77</v>
+        <v>0.47</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.33</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1.5</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.29</v>
+        <v>4.29</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1159,16 +1159,16 @@
         <v>2.06</v>
       </c>
       <c r="K13" t="n">
-        <v>6.77</v>
+        <v>0.71</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5</v>
+        <v>4.79</v>
       </c>
       <c r="M13" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>1.63</v>
       </c>
       <c r="L15" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
@@ -1331,16 +1331,16 @@
         <v>1.77</v>
       </c>
       <c r="K16" t="n">
-        <v>6.36</v>
+        <v>0.71</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0.71</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>1.67</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.25</v>
+        <v>4.25</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1505,14 +1505,14 @@
         <v>2.47</v>
       </c>
       <c r="K19" t="n">
-        <v>6.66</v>
+        <v>0.65</v>
       </c>
       <c r="L19" t="n">
-        <v>0.46</v>
+        <v>4.71</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>1.1</v>
       </c>
       <c r="L21" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>0.71</v>
@@ -1677,10 +1677,10 @@
         <v>2.47</v>
       </c>
       <c r="K22" t="n">
-        <v>5.48</v>
+        <v>0.18</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.12</v>
+        <v>3.88</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1744,7 +1744,7 @@
         <v>0.58</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>1.98</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.75</v>
+        <v>3.75</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="e">
@@ -1849,14 +1849,14 @@
         <v>1.82</v>
       </c>
       <c r="K25" t="n">
-        <v>5.34</v>
+        <v>0.04</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02</v>
+        <v>3.78</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>3.5</v>
       </c>
       <c r="M26" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>1.25</v>
       </c>
       <c r="L27" t="n">
-        <v>-4.29</v>
+        <v>4.29</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="n">
@@ -2023,16 +2023,16 @@
         <v>2.29</v>
       </c>
       <c r="K28" t="n">
-        <v>5.51</v>
+        <v>0.56</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.4</v>
+        <v>3.9</v>
       </c>
       <c r="M28" t="n">
-        <v>1.77</v>
+        <v>0.35</v>
       </c>
       <c r="N28" t="n">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
